--- a/biology/Biochimie/Phosphosphingolipide/Phosphosphingolipide.xlsx
+++ b/biology/Biochimie/Phosphosphingolipide/Phosphosphingolipide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phosphosphingolipides sont issus de céramide lié à un acide phosphorique et à un alcool aminé. L'alcool aminé est souvent une éthanolamine ou une choline. Les phosphosphingolipides sont constitués d'une liaison phosphodiester en C1[Lequel ?] entre l'acide phosphorique et le céramide.
 La sphingomyéline est un phosphosphingolipide qui possède un rôle structural. En effet, c'est un composant des membranes[Lesquelles ?]. Elle est présente dans le cerveau sous forme de substance blanche et grise, au niveau de l’œil et de la cornée et dans le tissu nerveux en gaine de myéline. Elle a également un rôle fonctionnel de transduction du signal et d'activité neuronale.
